--- a/Code/Results/Cases/Case_1_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.255360306002813</v>
+        <v>7.804822523898126</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.075697092639628</v>
+        <v>9.99258671121394</v>
       </c>
       <c r="E2">
-        <v>9.377566977480816</v>
+        <v>14.27630618581365</v>
       </c>
       <c r="F2">
-        <v>20.29541546539946</v>
+        <v>29.65268827905372</v>
       </c>
       <c r="G2">
-        <v>21.6354778103478</v>
+        <v>28.87574153429919</v>
       </c>
       <c r="H2">
-        <v>8.579288320587326</v>
+        <v>14.35245469603212</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.906486973177839</v>
+        <v>10.15113047360597</v>
       </c>
       <c r="K2">
-        <v>14.14023606071267</v>
+        <v>9.212049532784579</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.19076449046851</v>
+        <v>14.57408802428979</v>
       </c>
       <c r="N2">
-        <v>12.63536092428742</v>
+        <v>18.86448358266832</v>
       </c>
       <c r="O2">
-        <v>13.97287209619457</v>
+        <v>21.85696387625436</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.898457698143595</v>
+        <v>7.732920495321255</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.852551130821784</v>
+        <v>9.973345109851619</v>
       </c>
       <c r="E3">
-        <v>9.212052597024689</v>
+        <v>14.28493190878059</v>
       </c>
       <c r="F3">
-        <v>19.97152189294585</v>
+        <v>29.69423864898153</v>
       </c>
       <c r="G3">
-        <v>21.16375576636405</v>
+        <v>28.90457072843257</v>
       </c>
       <c r="H3">
-        <v>8.60679045592499</v>
+        <v>14.39237198742065</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.925663056493202</v>
+        <v>10.17403907347123</v>
       </c>
       <c r="K3">
-        <v>13.36366245934036</v>
+        <v>8.890999866336644</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.45569437930946</v>
+        <v>14.45897909058559</v>
       </c>
       <c r="N3">
-        <v>12.79019275177329</v>
+        <v>18.91688675823854</v>
       </c>
       <c r="O3">
-        <v>13.90852717369215</v>
+        <v>21.91506029678743</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.672678145645183</v>
+        <v>7.690262217059379</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.71481152556255</v>
+        <v>9.963112535756586</v>
       </c>
       <c r="E4">
-        <v>9.114096707128333</v>
+        <v>14.29265434284498</v>
       </c>
       <c r="F4">
-        <v>19.78625618125901</v>
+        <v>29.72641538546965</v>
       </c>
       <c r="G4">
-        <v>20.89157624616407</v>
+        <v>28.9308590992901</v>
       </c>
       <c r="H4">
-        <v>8.628750895163853</v>
+        <v>14.41901331321613</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.939927707797978</v>
+        <v>10.18925762855908</v>
       </c>
       <c r="K4">
-        <v>12.86236513702032</v>
+        <v>8.688439382056902</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.06564684351418</v>
+        <v>14.38979437091715</v>
       </c>
       <c r="N4">
-        <v>12.88844306249826</v>
+        <v>18.95080494045076</v>
       </c>
       <c r="O4">
-        <v>13.87996662678426</v>
+        <v>21.95509983281876</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.57913405063251</v>
+        <v>7.673272793920585</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.658583948768902</v>
+        <v>9.959343780021321</v>
       </c>
       <c r="E5">
-        <v>9.075136293551394</v>
+        <v>14.29641213072264</v>
       </c>
       <c r="F5">
-        <v>19.71419380839055</v>
+        <v>29.74120195313427</v>
       </c>
       <c r="G5">
-        <v>20.78510745496314</v>
+        <v>28.94372705021889</v>
       </c>
       <c r="H5">
-        <v>8.638936782056735</v>
+        <v>14.43040602921685</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.946353159982814</v>
+        <v>10.19574946070631</v>
       </c>
       <c r="K5">
-        <v>12.65201930064218</v>
+        <v>8.604646497660166</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.90333914103326</v>
+        <v>14.36200042235972</v>
       </c>
       <c r="N5">
-        <v>12.92928430372501</v>
+        <v>18.96506605717068</v>
       </c>
       <c r="O5">
-        <v>13.87100498176117</v>
+        <v>21.97251313753484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.563512565933119</v>
+        <v>7.670476076672237</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.649244101896798</v>
+        <v>9.958742298300548</v>
       </c>
       <c r="E6">
-        <v>9.068725728851705</v>
+        <v>14.29707301939584</v>
       </c>
       <c r="F6">
-        <v>19.70243552818778</v>
+        <v>29.74375831684178</v>
       </c>
       <c r="G6">
-        <v>20.7676982261013</v>
+        <v>28.9459937906203</v>
       </c>
       <c r="H6">
-        <v>8.640701712501054</v>
+        <v>14.43233016547893</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.947456697802222</v>
+        <v>10.1968449580792</v>
       </c>
       <c r="K6">
-        <v>12.61672849213239</v>
+        <v>8.590661081238171</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.87619107782472</v>
+        <v>14.35741007015228</v>
       </c>
       <c r="N6">
-        <v>12.93611458275917</v>
+        <v>18.96746066088844</v>
       </c>
       <c r="O6">
-        <v>13.86967629162438</v>
+        <v>21.97547080469691</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.671422610665657</v>
+        <v>7.690031470496596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.714053499366791</v>
+        <v>9.963060080759529</v>
       </c>
       <c r="E7">
-        <v>9.113567353168779</v>
+        <v>14.29270254759652</v>
       </c>
       <c r="F7">
-        <v>19.78527040588712</v>
+        <v>29.72660802568778</v>
       </c>
       <c r="G7">
-        <v>20.89012230631887</v>
+        <v>28.9310239208618</v>
       </c>
       <c r="H7">
-        <v>8.628883308848861</v>
+        <v>14.41916478840256</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.940011901688439</v>
+        <v>10.18934400445455</v>
       </c>
       <c r="K7">
-        <v>12.85955275011074</v>
+        <v>8.687314209073076</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.06347124619665</v>
+        <v>14.38941788362753</v>
       </c>
       <c r="N7">
-        <v>12.8889906043198</v>
+        <v>18.95099549124346</v>
       </c>
       <c r="O7">
-        <v>13.87983503112728</v>
+        <v>21.95533023566775</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.133751725992508</v>
+        <v>7.779733419642699</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.998956748104966</v>
+        <v>9.985625977456481</v>
       </c>
       <c r="E8">
-        <v>9.319757094981092</v>
+        <v>14.27877727602221</v>
       </c>
       <c r="F8">
-        <v>20.18092455718562</v>
+        <v>29.66563080244586</v>
       </c>
       <c r="G8">
-        <v>21.46924343723307</v>
+        <v>28.88389749846198</v>
       </c>
       <c r="H8">
-        <v>8.587694241478019</v>
+        <v>14.36577573420824</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.912573625233835</v>
+        <v>10.1587903344355</v>
       </c>
       <c r="K8">
-        <v>13.87760216212869</v>
+        <v>9.102547304513541</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>11.93784348027631</v>
+        <v>14.53410328922454</v>
       </c>
       <c r="N8">
-        <v>12.68808807680256</v>
+        <v>18.88219118211504</v>
       </c>
       <c r="O8">
-        <v>13.94836957813351</v>
+        <v>21.87608804194454</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.982856858416969</v>
+        <v>7.966569429422567</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.548429216803104</v>
+        <v>10.0422709407576</v>
       </c>
       <c r="E9">
-        <v>9.751619793112077</v>
+        <v>14.27068159016482</v>
       </c>
       <c r="F9">
-        <v>21.06365468204067</v>
+        <v>29.59898576335785</v>
       </c>
       <c r="G9">
-        <v>22.74017769023916</v>
+        <v>28.85974569627266</v>
       </c>
       <c r="H9">
-        <v>8.54896326285245</v>
+        <v>14.27799299543005</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.879159902500426</v>
+        <v>10.10800558502853</v>
       </c>
       <c r="K9">
-        <v>15.67681585304389</v>
+        <v>9.869051635706001</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.66373978027388</v>
+        <v>14.8285906005432</v>
       </c>
       <c r="N9">
-        <v>12.31924785703697</v>
+        <v>18.76104410973932</v>
       </c>
       <c r="O9">
-        <v>14.1727812813633</v>
+        <v>21.75541736010543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.60584741248846</v>
+        <v>8.109272333978696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.942336995451707</v>
+        <v>10.09121511838569</v>
       </c>
       <c r="E10">
-        <v>10.08348936598155</v>
+        <v>14.27638353981575</v>
       </c>
       <c r="F10">
-        <v>21.77528710069634</v>
+        <v>29.58232708838353</v>
       </c>
       <c r="G10">
-        <v>23.7512885836865</v>
+        <v>28.88371059087126</v>
       </c>
       <c r="H10">
-        <v>8.548619424952381</v>
+        <v>14.22380524790154</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.867934345405395</v>
+        <v>10.07624090870141</v>
       </c>
       <c r="K10">
-        <v>16.87580056936391</v>
+        <v>10.44531280295914</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.80712578724063</v>
+        <v>15.05002750691108</v>
       </c>
       <c r="N10">
-        <v>12.06342999081213</v>
+        <v>18.68037039574579</v>
       </c>
       <c r="O10">
-        <v>14.39648206736</v>
+        <v>21.68801010489561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.912591545549255</v>
+        <v>8.175103554152507</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.118664686607104</v>
+        <v>10.11501782948865</v>
       </c>
       <c r="E11">
-        <v>10.23716403202224</v>
+        <v>14.28148979853093</v>
       </c>
       <c r="F11">
-        <v>22.11216440582925</v>
+        <v>29.58175889120626</v>
       </c>
       <c r="G11">
-        <v>24.22685602826255</v>
+        <v>28.90366128779007</v>
       </c>
       <c r="H11">
-        <v>8.555111018905649</v>
+        <v>14.20139066571403</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.8659195647183</v>
+        <v>10.06299061220963</v>
       </c>
       <c r="K11">
-        <v>17.39428490432274</v>
+        <v>10.71500938194179</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.30043032104425</v>
+        <v>15.15154566944166</v>
       </c>
       <c r="N11">
-        <v>11.9503256209097</v>
+        <v>18.64546530851532</v>
       </c>
       <c r="O11">
-        <v>14.51175838712083</v>
+        <v>21.66197353970986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.026270485125298</v>
+        <v>8.200141066719919</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.184970745719172</v>
+        <v>10.12424739060753</v>
       </c>
       <c r="E12">
-        <v>10.29570770199368</v>
+        <v>14.28378283088771</v>
       </c>
       <c r="F12">
-        <v>22.24156966132453</v>
+        <v>29.58255018996947</v>
       </c>
       <c r="G12">
-        <v>24.40908282326938</v>
+        <v>28.9125141896342</v>
       </c>
       <c r="H12">
-        <v>8.558570457543921</v>
+        <v>14.19322425924629</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.865618078138769</v>
+        <v>10.05814524636438</v>
       </c>
       <c r="K12">
-        <v>17.58673780900143</v>
+        <v>10.8151428695635</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.48339722425333</v>
+        <v>15.19007364243109</v>
       </c>
       <c r="N12">
-        <v>11.90796579799477</v>
+        <v>18.63250458364431</v>
       </c>
       <c r="O12">
-        <v>14.55740623702718</v>
+        <v>21.6527805110616</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.001897551324246</v>
+        <v>8.194744321704993</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.17071203207138</v>
+        <v>10.12225011769671</v>
       </c>
       <c r="E13">
-        <v>10.28308428593622</v>
+        <v>14.28327303303577</v>
       </c>
       <c r="F13">
-        <v>22.21361908299832</v>
+        <v>29.58233503886096</v>
       </c>
       <c r="G13">
-        <v>24.36974347393618</v>
+        <v>28.91054989651711</v>
       </c>
       <c r="H13">
-        <v>8.5577801519331</v>
+        <v>14.19496874162784</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.86566221173532</v>
+        <v>10.05918112676167</v>
       </c>
       <c r="K13">
-        <v>17.54546254995874</v>
+        <v>10.79366656602625</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.44416229048797</v>
+        <v>15.18177260297482</v>
       </c>
       <c r="N13">
-        <v>11.91706780966655</v>
+        <v>18.6352844878946</v>
       </c>
       <c r="O13">
-        <v>14.54748564434068</v>
+        <v>21.65473073869618</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.921993519022612</v>
+        <v>8.177161358651809</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.124129337113942</v>
+        <v>10.11577285257386</v>
       </c>
       <c r="E14">
-        <v>10.24197364700377</v>
+        <v>14.28167125624739</v>
       </c>
       <c r="F14">
-        <v>22.12277414685774</v>
+        <v>29.58180383212279</v>
       </c>
       <c r="G14">
-        <v>24.24180563630146</v>
+        <v>28.90436363103152</v>
       </c>
       <c r="H14">
-        <v>8.555375302716927</v>
+        <v>14.20071236695386</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.865885414634964</v>
+        <v>10.0625885307731</v>
       </c>
       <c r="K14">
-        <v>17.41019603475978</v>
+        <v>10.72328758986536</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.31555987797737</v>
+        <v>15.15471383889391</v>
       </c>
       <c r="N14">
-        <v>11.94683122109141</v>
+        <v>18.64439387466098</v>
       </c>
       <c r="O14">
-        <v>14.51547359649165</v>
+        <v>21.66120386159218</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.872727915275432</v>
+        <v>8.166404757907184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.095534002696477</v>
+        <v>10.1118333122969</v>
       </c>
       <c r="E15">
-        <v>10.21683671160033</v>
+        <v>14.28073686711301</v>
       </c>
       <c r="F15">
-        <v>22.06736663348285</v>
+        <v>29.58160946616053</v>
       </c>
       <c r="G15">
-        <v>24.16371564124139</v>
+        <v>28.90074328291399</v>
       </c>
       <c r="H15">
-        <v>8.554033999872669</v>
+        <v>14.20427237364257</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.866082737295118</v>
+        <v>10.06469808601766</v>
       </c>
       <c r="K15">
-        <v>17.32683513813229</v>
+        <v>10.67991767773957</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.23628821828733</v>
+        <v>15.13814984537367</v>
       </c>
       <c r="N15">
-        <v>11.96512344889667</v>
+        <v>18.65000709015912</v>
       </c>
       <c r="O15">
-        <v>14.49612658406552</v>
+        <v>21.66525565639401</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.585452890666891</v>
+        <v>8.104986560330554</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.9307512085725</v>
+        <v>10.08969006558589</v>
       </c>
       <c r="E16">
-        <v>10.07349746416145</v>
+        <v>14.2761002343348</v>
       </c>
       <c r="F16">
-        <v>21.75353142293354</v>
+        <v>29.58250516131895</v>
       </c>
       <c r="G16">
-        <v>23.72051416606619</v>
+        <v>28.88258861183317</v>
       </c>
       <c r="H16">
-        <v>8.548332816875915</v>
+        <v>14.22531508341907</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.868129663599207</v>
+        <v>10.07713096309</v>
       </c>
       <c r="K16">
-        <v>16.84137306409175</v>
+        <v>10.4274102139228</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.77434902411423</v>
+        <v>15.0434064926616</v>
       </c>
       <c r="N16">
-        <v>12.07088740652969</v>
+        <v>18.68268754612594</v>
       </c>
       <c r="O16">
-        <v>14.38922497630329</v>
+        <v>21.68980486296823</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.40478000888567</v>
+        <v>8.067526512580898</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.828888644249293</v>
+        <v>10.07649618446027</v>
       </c>
       <c r="E17">
-        <v>9.986228404065242</v>
+        <v>14.27389803189229</v>
       </c>
       <c r="F17">
-        <v>21.56433409376453</v>
+        <v>29.58484915640355</v>
       </c>
       <c r="G17">
-        <v>23.45254639003331</v>
+        <v>28.87376713311445</v>
       </c>
       <c r="H17">
-        <v>8.5465700980847</v>
+        <v>14.23879673753243</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.870189141900204</v>
+        <v>10.08506518969733</v>
       </c>
       <c r="K17">
-        <v>16.53664633077288</v>
+        <v>10.26898940787663</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.48410655902196</v>
+        <v>14.98546596684284</v>
       </c>
       <c r="N17">
-        <v>12.13660726989573</v>
+        <v>18.70319475532114</v>
       </c>
       <c r="O17">
-        <v>14.32714407593236</v>
+        <v>21.70605097707901</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.313292860562813</v>
+        <v>8.046067975407363</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.770033293703521</v>
+        <v>10.06905247814622</v>
       </c>
       <c r="E18">
-        <v>9.936290431525334</v>
+        <v>14.27286798976434</v>
       </c>
       <c r="F18">
-        <v>21.45675411306472</v>
+        <v>29.58685730247026</v>
       </c>
       <c r="G18">
-        <v>23.29989366988146</v>
+        <v>28.86954526689318</v>
       </c>
       <c r="H18">
-        <v>8.546179238104253</v>
+        <v>14.24676146238055</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.871663678388894</v>
+        <v>10.0897416765977</v>
       </c>
       <c r="K18">
-        <v>16.3588399305969</v>
+        <v>10.17659012741652</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.31464007341721</v>
+        <v>14.95221569362914</v>
       </c>
       <c r="N18">
-        <v>12.17471516839669</v>
+        <v>18.71515885067271</v>
       </c>
       <c r="O18">
-        <v>14.29270598564771</v>
+        <v>21.71583080659941</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.283749886038105</v>
+        <v>8.038818209064591</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.750061826399405</v>
+        <v>10.06655723449395</v>
       </c>
       <c r="E19">
-        <v>9.91942761735285</v>
+        <v>14.27255992626661</v>
       </c>
       <c r="F19">
-        <v>21.42054421137019</v>
+        <v>29.58765060829009</v>
       </c>
       <c r="G19">
-        <v>23.24846471004095</v>
+        <v>28.86826222417188</v>
       </c>
       <c r="H19">
-        <v>8.546152530251232</v>
+        <v>14.24949432280366</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.872212227843106</v>
+        <v>10.09134445863859</v>
       </c>
       <c r="K19">
-        <v>16.29820275912085</v>
+        <v>10.14508674110429</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.25682710784686</v>
+        <v>14.9409715483544</v>
       </c>
       <c r="N19">
-        <v>12.18767067751221</v>
+        <v>18.71923872178153</v>
       </c>
       <c r="O19">
-        <v>14.28126215994706</v>
+        <v>21.71921685069237</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.424182374686236</v>
+        <v>8.071505309732141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.839760101105968</v>
+        <v>10.07788571834071</v>
       </c>
       <c r="E20">
-        <v>9.995492043691373</v>
+        <v>14.27410798514484</v>
       </c>
       <c r="F20">
-        <v>21.58434639047893</v>
+        <v>29.58453134171784</v>
       </c>
       <c r="G20">
-        <v>23.48092010535928</v>
+        <v>28.87461803291201</v>
       </c>
       <c r="H20">
-        <v>8.546692937000486</v>
+        <v>14.23733981312431</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.869939774277782</v>
+        <v>10.08420889188226</v>
       </c>
       <c r="K20">
-        <v>16.56934755730646</v>
+        <v>10.28598631793947</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.51526473098781</v>
+        <v>14.99162621269159</v>
       </c>
       <c r="N20">
-        <v>12.12957944611779</v>
+        <v>18.70099425466379</v>
       </c>
       <c r="O20">
-        <v>14.33362094377389</v>
+        <v>21.70427647032023</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.945530349405944</v>
+        <v>8.18232313435411</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.137824829414372</v>
+        <v>10.1176695626063</v>
       </c>
       <c r="E21">
-        <v>10.25403962695162</v>
+        <v>14.28213199887811</v>
       </c>
       <c r="F21">
-        <v>22.14940808109822</v>
+        <v>29.58193256104465</v>
       </c>
       <c r="G21">
-        <v>24.27932682037506</v>
+        <v>28.90614549257815</v>
       </c>
       <c r="H21">
-        <v>8.556054130163666</v>
+        <v>14.19901659921463</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.865807193936701</v>
+        <v>10.06158302139885</v>
       </c>
       <c r="K21">
-        <v>17.45003259986608</v>
+        <v>10.74401399942017</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.3534374649255</v>
+        <v>15.16265956063375</v>
       </c>
       <c r="N21">
-        <v>11.93807621330271</v>
+        <v>18.64171125689397</v>
       </c>
       <c r="O21">
-        <v>14.52482177236435</v>
+        <v>21.65928445362287</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.271826177999005</v>
+        <v>8.255371788018531</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.329894426724703</v>
+        <v>10.14492700762964</v>
       </c>
       <c r="E22">
-        <v>10.42504138692506</v>
+        <v>14.28947000608339</v>
       </c>
       <c r="F22">
-        <v>22.52939181313529</v>
+        <v>29.58609934369945</v>
       </c>
       <c r="G22">
-        <v>24.81355918591867</v>
+        <v>28.93431375458061</v>
       </c>
       <c r="H22">
-        <v>8.568029293827276</v>
+        <v>14.17584416478641</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.865804221613899</v>
+        <v>10.04779949107544</v>
       </c>
       <c r="K22">
-        <v>18.00296211570323</v>
+        <v>11.03172195906216</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.87888066236073</v>
+        <v>15.27492384878444</v>
       </c>
       <c r="N22">
-        <v>11.81566016221977</v>
+        <v>18.6044644229994</v>
       </c>
       <c r="O22">
-        <v>14.66143281182764</v>
+        <v>21.63376453510871</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.098989130308633</v>
+        <v>8.216334902907162</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.227649333575956</v>
+        <v>10.13026599681229</v>
       </c>
       <c r="E23">
-        <v>10.33360141124507</v>
+        <v>14.28536266309635</v>
       </c>
       <c r="F23">
-        <v>22.32562772061267</v>
+        <v>29.58333947214176</v>
       </c>
       <c r="G23">
-        <v>24.527325432786</v>
+        <v>28.91858922788005</v>
       </c>
       <c r="H23">
-        <v>8.561086957440143</v>
+        <v>14.18804025529854</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.865553267108931</v>
+        <v>10.05506426392952</v>
       </c>
       <c r="K23">
-        <v>17.70992724124786</v>
+        <v>10.87924235279221</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.60047881597524</v>
+        <v>15.21497111857753</v>
       </c>
       <c r="N23">
-        <v>11.88074462653421</v>
+        <v>18.62420697266625</v>
       </c>
       <c r="O23">
-        <v>14.58743904541836</v>
+        <v>21.64702921947961</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.415415817323952</v>
+        <v>8.069706251641644</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.834846024577778</v>
+        <v>10.07725706852881</v>
       </c>
       <c r="E24">
-        <v>9.99130321986423</v>
+        <v>14.27401232992959</v>
       </c>
       <c r="F24">
-        <v>21.57529511394072</v>
+        <v>29.58467296806312</v>
       </c>
       <c r="G24">
-        <v>23.4680879627426</v>
+        <v>28.87423069407938</v>
       </c>
       <c r="H24">
-        <v>8.546635465842286</v>
+        <v>14.23799782223113</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.87005160976322</v>
+        <v>10.0845956659091</v>
       </c>
       <c r="K24">
-        <v>16.55457147674492</v>
+        <v>10.27830612684158</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.50118622833153</v>
+        <v>14.98884097495642</v>
       </c>
       <c r="N24">
-        <v>12.13275571397631</v>
+        <v>18.70198855823707</v>
       </c>
       <c r="O24">
-        <v>14.33068885285608</v>
+        <v>21.70507735520086</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.759912674019581</v>
+        <v>7.914980527065076</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.401225516020364</v>
+        <v>10.02564262174532</v>
       </c>
       <c r="E25">
-        <v>9.632068065864738</v>
+        <v>14.27082053064935</v>
       </c>
       <c r="F25">
-        <v>20.81359604436078</v>
+        <v>29.61134208029572</v>
       </c>
       <c r="G25">
-        <v>22.38236827045374</v>
+        <v>28.85895621975866</v>
       </c>
       <c r="H25">
-        <v>8.554686176511792</v>
+        <v>14.29993031100161</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.885925321620424</v>
+        <v>10.12076869481245</v>
       </c>
       <c r="K25">
-        <v>15.2115270715801</v>
+        <v>9.667409365451956</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.21877677397617</v>
+        <v>14.74792367020266</v>
       </c>
       <c r="N25">
-        <v>12.41635629957722</v>
+        <v>18.79234949802778</v>
       </c>
       <c r="O25">
-        <v>14.10200715930207</v>
+        <v>21.78433565770271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_232/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.804822523898126</v>
+        <v>7.255360306002798</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.99258671121394</v>
+        <v>7.075697092639681</v>
       </c>
       <c r="E2">
-        <v>14.27630618581365</v>
+        <v>9.377566977480818</v>
       </c>
       <c r="F2">
-        <v>29.65268827905372</v>
+        <v>20.29541546539935</v>
       </c>
       <c r="G2">
-        <v>28.87574153429919</v>
+        <v>21.63547781034777</v>
       </c>
       <c r="H2">
-        <v>14.35245469603212</v>
+        <v>8.579288320587153</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.15113047360597</v>
+        <v>5.906486973177836</v>
       </c>
       <c r="K2">
-        <v>9.212049532784579</v>
+        <v>14.14023606071273</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.57408802428979</v>
+        <v>12.19076449046853</v>
       </c>
       <c r="N2">
-        <v>18.86448358266832</v>
+        <v>12.63536092428735</v>
       </c>
       <c r="O2">
-        <v>21.85696387625436</v>
+        <v>13.97287209619448</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.732920495321255</v>
+        <v>6.898457698143579</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.973345109851619</v>
+        <v>6.852551130821702</v>
       </c>
       <c r="E3">
-        <v>14.28493190878059</v>
+        <v>9.212052597024678</v>
       </c>
       <c r="F3">
-        <v>29.69423864898153</v>
+        <v>19.9715218929458</v>
       </c>
       <c r="G3">
-        <v>28.90457072843257</v>
+        <v>21.16375576636405</v>
       </c>
       <c r="H3">
-        <v>14.39237198742065</v>
+        <v>8.606790455924997</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.17403907347123</v>
+        <v>5.92566305649326</v>
       </c>
       <c r="K3">
-        <v>8.890999866336644</v>
+        <v>13.36366245934044</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.45897909058559</v>
+        <v>11.45569437930943</v>
       </c>
       <c r="N3">
-        <v>18.91688675823854</v>
+        <v>12.79019275177336</v>
       </c>
       <c r="O3">
-        <v>21.91506029678743</v>
+        <v>13.90852717369215</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.690262217059379</v>
+        <v>6.672678145645168</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.963112535756586</v>
+        <v>6.714811525562594</v>
       </c>
       <c r="E4">
-        <v>14.29265434284498</v>
+        <v>9.114096707128223</v>
       </c>
       <c r="F4">
-        <v>29.72641538546965</v>
+        <v>19.7862561812589</v>
       </c>
       <c r="G4">
-        <v>28.9308590992901</v>
+        <v>20.89157624616399</v>
       </c>
       <c r="H4">
-        <v>14.41901331321613</v>
+        <v>8.628750895163792</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.18925762855908</v>
+        <v>5.93992770779795</v>
       </c>
       <c r="K4">
-        <v>8.688439382056902</v>
+        <v>12.86236513702035</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.38979437091715</v>
+        <v>11.06564684351413</v>
       </c>
       <c r="N4">
-        <v>18.95080494045076</v>
+        <v>12.88844306249823</v>
       </c>
       <c r="O4">
-        <v>21.95509983281876</v>
+        <v>13.87996662678415</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.673272793920585</v>
+        <v>6.579134050632502</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.959343780021321</v>
+        <v>6.658583948768886</v>
       </c>
       <c r="E5">
-        <v>14.29641213072264</v>
+        <v>9.075136293551346</v>
       </c>
       <c r="F5">
-        <v>29.74120195313427</v>
+        <v>19.71419380839037</v>
       </c>
       <c r="G5">
-        <v>28.94372705021889</v>
+        <v>20.78510745496307</v>
       </c>
       <c r="H5">
-        <v>14.43040602921685</v>
+        <v>8.638936782056559</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.19574946070631</v>
+        <v>5.946353159982816</v>
       </c>
       <c r="K5">
-        <v>8.604646497660166</v>
+        <v>12.65201930064222</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.36200042235972</v>
+        <v>10.90333914103321</v>
       </c>
       <c r="N5">
-        <v>18.96506605717068</v>
+        <v>12.92928430372494</v>
       </c>
       <c r="O5">
-        <v>21.97251313753484</v>
+        <v>13.87100498176101</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.670476076672237</v>
+        <v>6.56351256593318</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.958742298300548</v>
+        <v>6.649244101896737</v>
       </c>
       <c r="E6">
-        <v>14.29707301939584</v>
+        <v>9.068725728851696</v>
       </c>
       <c r="F6">
-        <v>29.74375831684178</v>
+        <v>19.70243552818772</v>
       </c>
       <c r="G6">
-        <v>28.9459937906203</v>
+        <v>20.76769822610127</v>
       </c>
       <c r="H6">
-        <v>14.43233016547893</v>
+        <v>8.640701712501048</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.1968449580792</v>
+        <v>5.947456697802309</v>
       </c>
       <c r="K6">
-        <v>8.590661081238171</v>
+        <v>12.61672849213235</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.35741007015228</v>
+        <v>10.87619107782472</v>
       </c>
       <c r="N6">
-        <v>18.96746066088844</v>
+        <v>12.9361145827591</v>
       </c>
       <c r="O6">
-        <v>21.97547080469691</v>
+        <v>13.86967629162437</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.690031470496596</v>
+        <v>6.671422610665678</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.963060080759529</v>
+        <v>6.714053499366851</v>
       </c>
       <c r="E7">
-        <v>14.29270254759652</v>
+        <v>9.113567353168776</v>
       </c>
       <c r="F7">
-        <v>29.72660802568778</v>
+        <v>19.78527040588695</v>
       </c>
       <c r="G7">
-        <v>28.9310239208618</v>
+        <v>20.89012230631861</v>
       </c>
       <c r="H7">
-        <v>14.41916478840256</v>
+        <v>8.628883308848739</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.18934400445455</v>
+        <v>5.940011901688411</v>
       </c>
       <c r="K7">
-        <v>8.687314209073076</v>
+        <v>12.85955275011077</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.38941788362753</v>
+        <v>11.06347124619661</v>
       </c>
       <c r="N7">
-        <v>18.95099549124346</v>
+        <v>12.8889906043197</v>
       </c>
       <c r="O7">
-        <v>21.95533023566775</v>
+        <v>13.87983503112714</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.779733419642699</v>
+        <v>7.133751725992482</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.985625977456481</v>
+        <v>6.998956748104947</v>
       </c>
       <c r="E8">
-        <v>14.27877727602221</v>
+        <v>9.319757094981188</v>
       </c>
       <c r="F8">
-        <v>29.66563080244586</v>
+        <v>20.18092455718551</v>
       </c>
       <c r="G8">
-        <v>28.88389749846198</v>
+        <v>21.4692434372329</v>
       </c>
       <c r="H8">
-        <v>14.36577573420824</v>
+        <v>8.587694241477916</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.1587903344355</v>
+        <v>5.91257362523386</v>
       </c>
       <c r="K8">
-        <v>9.102547304513541</v>
+        <v>13.87760216212875</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.53410328922454</v>
+        <v>11.93784348027632</v>
       </c>
       <c r="N8">
-        <v>18.88219118211504</v>
+        <v>12.68808807680249</v>
       </c>
       <c r="O8">
-        <v>21.87608804194454</v>
+        <v>13.94836957813339</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.966569429422567</v>
+        <v>7.982856858416998</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.0422709407576</v>
+        <v>7.548429216803097</v>
       </c>
       <c r="E9">
-        <v>14.27068159016482</v>
+        <v>9.751619793112077</v>
       </c>
       <c r="F9">
-        <v>29.59898576335785</v>
+        <v>21.06365468204062</v>
       </c>
       <c r="G9">
-        <v>28.85974569627266</v>
+        <v>22.74017769023903</v>
       </c>
       <c r="H9">
-        <v>14.27799299543005</v>
+        <v>8.548963262852553</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.10800558502853</v>
+        <v>5.879159902500427</v>
       </c>
       <c r="K9">
-        <v>9.869051635706001</v>
+        <v>15.67681585304396</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.8285906005432</v>
+        <v>13.66373978027391</v>
       </c>
       <c r="N9">
-        <v>18.76104410973932</v>
+        <v>12.31924785703701</v>
       </c>
       <c r="O9">
-        <v>21.75541736010543</v>
+        <v>14.17278128136325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.109272333978696</v>
+        <v>8.605847412488467</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.09121511838569</v>
+        <v>7.942336995451707</v>
       </c>
       <c r="E10">
-        <v>14.27638353981575</v>
+        <v>10.08348936598155</v>
       </c>
       <c r="F10">
-        <v>29.58232708838353</v>
+        <v>21.77528710069632</v>
       </c>
       <c r="G10">
-        <v>28.88371059087126</v>
+        <v>23.75128858368648</v>
       </c>
       <c r="H10">
-        <v>14.22380524790154</v>
+        <v>8.548619424952348</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.07624090870141</v>
+        <v>5.867934345405367</v>
       </c>
       <c r="K10">
-        <v>10.44531280295914</v>
+        <v>16.87580056936394</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.05002750691108</v>
+        <v>14.80712578724064</v>
       </c>
       <c r="N10">
-        <v>18.68037039574579</v>
+        <v>12.06342999081212</v>
       </c>
       <c r="O10">
-        <v>21.68801010489561</v>
+        <v>14.39648206735996</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.175103554152507</v>
+        <v>8.912591545549297</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.11501782948865</v>
+        <v>8.118664686607122</v>
       </c>
       <c r="E11">
-        <v>14.28148979853093</v>
+        <v>10.23716403202224</v>
       </c>
       <c r="F11">
-        <v>29.58175889120626</v>
+        <v>22.11216440582907</v>
       </c>
       <c r="G11">
-        <v>28.90366128779007</v>
+        <v>24.22685602826243</v>
       </c>
       <c r="H11">
-        <v>14.20139066571403</v>
+        <v>8.555111018905547</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.06299061220963</v>
+        <v>5.865919564718277</v>
       </c>
       <c r="K11">
-        <v>10.71500938194179</v>
+        <v>17.39428490432287</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.15154566944166</v>
+        <v>15.30043032104436</v>
       </c>
       <c r="N11">
-        <v>18.64546530851532</v>
+        <v>11.95032562090964</v>
       </c>
       <c r="O11">
-        <v>21.66197353970986</v>
+        <v>14.51175838712063</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.200141066719919</v>
+        <v>9.02627048512524</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.12424739060753</v>
+        <v>8.184970745719179</v>
       </c>
       <c r="E12">
-        <v>14.28378283088771</v>
+        <v>10.29570770199371</v>
       </c>
       <c r="F12">
-        <v>29.58255018996947</v>
+        <v>22.24156966132445</v>
       </c>
       <c r="G12">
-        <v>28.9125141896342</v>
+        <v>24.40908282326934</v>
       </c>
       <c r="H12">
-        <v>14.19322425924629</v>
+        <v>8.55857045754386</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.05814524636438</v>
+        <v>5.865618078138795</v>
       </c>
       <c r="K12">
-        <v>10.8151428695635</v>
+        <v>17.58673780900145</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.19007364243109</v>
+        <v>15.48339722425332</v>
       </c>
       <c r="N12">
-        <v>18.63250458364431</v>
+        <v>11.90796579799474</v>
       </c>
       <c r="O12">
-        <v>21.6527805110616</v>
+        <v>14.55740623702711</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.194744321704993</v>
+        <v>9.001897551324237</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.12225011769671</v>
+        <v>8.170712032071306</v>
       </c>
       <c r="E13">
-        <v>14.28327303303577</v>
+        <v>10.28308428593616</v>
       </c>
       <c r="F13">
-        <v>29.58233503886096</v>
+        <v>22.21361908299828</v>
       </c>
       <c r="G13">
-        <v>28.91054989651711</v>
+        <v>24.36974347393618</v>
       </c>
       <c r="H13">
-        <v>14.19496874162784</v>
+        <v>8.557780151933109</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.05918112676167</v>
+        <v>5.865662211735322</v>
       </c>
       <c r="K13">
-        <v>10.79366656602625</v>
+        <v>17.54546254995875</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.18177260297482</v>
+        <v>15.44416229048799</v>
       </c>
       <c r="N13">
-        <v>18.6352844878946</v>
+        <v>11.91706780966651</v>
       </c>
       <c r="O13">
-        <v>21.65473073869618</v>
+        <v>14.54748564434065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.177161358651809</v>
+        <v>8.921993519022621</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.11577285257386</v>
+        <v>8.124129337113862</v>
       </c>
       <c r="E14">
-        <v>14.28167125624739</v>
+        <v>10.24197364700374</v>
       </c>
       <c r="F14">
-        <v>29.58180383212279</v>
+        <v>22.12277414685754</v>
       </c>
       <c r="G14">
-        <v>28.90436363103152</v>
+        <v>24.24180563630129</v>
       </c>
       <c r="H14">
-        <v>14.20071236695386</v>
+        <v>8.555375302716827</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.0625885307731</v>
+        <v>5.865885414634961</v>
       </c>
       <c r="K14">
-        <v>10.72328758986536</v>
+        <v>17.41019603475987</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.15471383889391</v>
+        <v>15.31555987797744</v>
       </c>
       <c r="N14">
-        <v>18.64439387466098</v>
+        <v>11.94683122109131</v>
       </c>
       <c r="O14">
-        <v>21.66120386159218</v>
+        <v>14.51547359649151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.166404757907184</v>
+        <v>8.872727915275469</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.1118333122969</v>
+        <v>8.095534002696466</v>
       </c>
       <c r="E15">
-        <v>14.28073686711301</v>
+        <v>10.21683671160033</v>
       </c>
       <c r="F15">
-        <v>29.58160946616053</v>
+        <v>22.06736663348282</v>
       </c>
       <c r="G15">
-        <v>28.90074328291399</v>
+        <v>24.16371564124134</v>
       </c>
       <c r="H15">
-        <v>14.20427237364257</v>
+        <v>8.554033999872662</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.06469808601766</v>
+        <v>5.866082737295118</v>
       </c>
       <c r="K15">
-        <v>10.67991767773957</v>
+        <v>17.32683513813225</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.13814984537367</v>
+        <v>15.23628821828732</v>
       </c>
       <c r="N15">
-        <v>18.65000709015912</v>
+        <v>11.96512344889664</v>
       </c>
       <c r="O15">
-        <v>21.66525565639401</v>
+        <v>14.4961265840655</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.104986560330554</v>
+        <v>8.585452890666874</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.08969006558589</v>
+        <v>7.930751208572492</v>
       </c>
       <c r="E16">
-        <v>14.2761002343348</v>
+        <v>10.07349746416141</v>
       </c>
       <c r="F16">
-        <v>29.58250516131895</v>
+        <v>21.75353142293349</v>
       </c>
       <c r="G16">
-        <v>28.88258861183317</v>
+        <v>23.7205141660661</v>
       </c>
       <c r="H16">
-        <v>14.22531508341907</v>
+        <v>8.54833281687592</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.07713096309</v>
+        <v>5.868129663599151</v>
       </c>
       <c r="K16">
-        <v>10.4274102139228</v>
+        <v>16.84137306409181</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.0434064926616</v>
+        <v>14.77434902411426</v>
       </c>
       <c r="N16">
-        <v>18.68268754612594</v>
+        <v>12.07088740652968</v>
       </c>
       <c r="O16">
-        <v>21.68980486296823</v>
+        <v>14.38922497630324</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.067526512580898</v>
+        <v>8.404780008885712</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.07649618446027</v>
+        <v>7.828888644249318</v>
       </c>
       <c r="E17">
-        <v>14.27389803189229</v>
+        <v>9.986228404065315</v>
       </c>
       <c r="F17">
-        <v>29.58484915640355</v>
+        <v>21.56433409376444</v>
       </c>
       <c r="G17">
-        <v>28.87376713311445</v>
+        <v>23.45254639003317</v>
       </c>
       <c r="H17">
-        <v>14.23879673753243</v>
+        <v>8.546570098084644</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.08506518969733</v>
+        <v>5.870189141900232</v>
       </c>
       <c r="K17">
-        <v>10.26898940787663</v>
+        <v>16.5366463307729</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.98546596684284</v>
+        <v>14.48410655902196</v>
       </c>
       <c r="N17">
-        <v>18.70319475532114</v>
+        <v>12.1366072698957</v>
       </c>
       <c r="O17">
-        <v>21.70605097707901</v>
+        <v>14.32714407593225</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.046067975407363</v>
+        <v>8.313292860562795</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.06905247814622</v>
+        <v>7.770033293703536</v>
       </c>
       <c r="E18">
-        <v>14.27286798976434</v>
+        <v>9.93629043152534</v>
       </c>
       <c r="F18">
-        <v>29.58685730247026</v>
+        <v>21.45675411306461</v>
       </c>
       <c r="G18">
-        <v>28.86954526689318</v>
+        <v>23.29989366988129</v>
       </c>
       <c r="H18">
-        <v>14.24676146238055</v>
+        <v>8.546179238104157</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.0897416765977</v>
+        <v>5.87166367838892</v>
       </c>
       <c r="K18">
-        <v>10.17659012741652</v>
+        <v>16.35883993059695</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.95221569362914</v>
+        <v>14.31464007341724</v>
       </c>
       <c r="N18">
-        <v>18.71515885067271</v>
+        <v>12.17471516839662</v>
       </c>
       <c r="O18">
-        <v>21.71583080659941</v>
+        <v>14.29270598564761</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.038818209064591</v>
+        <v>8.28374988603812</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.06655723449395</v>
+        <v>7.750061826399381</v>
       </c>
       <c r="E19">
-        <v>14.27255992626661</v>
+        <v>9.919427617352843</v>
       </c>
       <c r="F19">
-        <v>29.58765060829009</v>
+        <v>21.42054421137012</v>
       </c>
       <c r="G19">
-        <v>28.86826222417188</v>
+        <v>23.24846471004083</v>
       </c>
       <c r="H19">
-        <v>14.24949432280366</v>
+        <v>8.546152530251232</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.09134445863859</v>
+        <v>5.872212227843099</v>
       </c>
       <c r="K19">
-        <v>10.14508674110429</v>
+        <v>16.29820275912087</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.9409715483544</v>
+        <v>14.25682710784687</v>
       </c>
       <c r="N19">
-        <v>18.71923872178153</v>
+        <v>12.18767067751218</v>
       </c>
       <c r="O19">
-        <v>21.71921685069237</v>
+        <v>14.28126215994699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.071505309732141</v>
+        <v>8.424182374686225</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.07788571834071</v>
+        <v>7.839760101105912</v>
       </c>
       <c r="E20">
-        <v>14.27410798514484</v>
+        <v>9.995492043691339</v>
       </c>
       <c r="F20">
-        <v>29.58453134171784</v>
+        <v>21.5843463904788</v>
       </c>
       <c r="G20">
-        <v>28.87461803291201</v>
+        <v>23.48092010535925</v>
       </c>
       <c r="H20">
-        <v>14.23733981312431</v>
+        <v>8.546692937000438</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.08420889188226</v>
+        <v>5.869939774277809</v>
       </c>
       <c r="K20">
-        <v>10.28598631793947</v>
+        <v>16.5693475573065</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.99162621269159</v>
+        <v>14.51526473098784</v>
       </c>
       <c r="N20">
-        <v>18.70099425466379</v>
+        <v>12.12957944611776</v>
       </c>
       <c r="O20">
-        <v>21.70427647032023</v>
+        <v>14.33362094377384</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.18232313435411</v>
+        <v>8.945530349405963</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.1176695626063</v>
+        <v>8.137824829414367</v>
       </c>
       <c r="E21">
-        <v>14.28213199887811</v>
+        <v>10.25403962695162</v>
       </c>
       <c r="F21">
-        <v>29.58193256104465</v>
+        <v>22.14940808109814</v>
       </c>
       <c r="G21">
-        <v>28.90614549257815</v>
+        <v>24.279326820375</v>
       </c>
       <c r="H21">
-        <v>14.19901659921463</v>
+        <v>8.556054130163517</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.06158302139885</v>
+        <v>5.865807193936701</v>
       </c>
       <c r="K21">
-        <v>10.74401399942017</v>
+        <v>17.45003259986615</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.16265956063375</v>
+        <v>15.35343746492554</v>
       </c>
       <c r="N21">
-        <v>18.64171125689397</v>
+        <v>11.93807621330268</v>
       </c>
       <c r="O21">
-        <v>21.65928445362287</v>
+        <v>14.52482177236426</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.255371788018531</v>
+        <v>9.271826177999012</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.14492700762964</v>
+        <v>8.329894426724699</v>
       </c>
       <c r="E22">
-        <v>14.28947000608339</v>
+        <v>10.4250413869251</v>
       </c>
       <c r="F22">
-        <v>29.58609934369945</v>
+        <v>22.52939181313517</v>
       </c>
       <c r="G22">
-        <v>28.93431375458061</v>
+        <v>24.81355918591859</v>
       </c>
       <c r="H22">
-        <v>14.17584416478641</v>
+        <v>8.568029293827173</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.04779949107544</v>
+        <v>5.865804221613949</v>
       </c>
       <c r="K22">
-        <v>11.03172195906216</v>
+        <v>18.00296211570326</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.27492384878444</v>
+        <v>15.87888066236077</v>
       </c>
       <c r="N22">
-        <v>18.6044644229994</v>
+        <v>11.81566016221975</v>
       </c>
       <c r="O22">
-        <v>21.63376453510871</v>
+        <v>14.66143281182758</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.216334902907162</v>
+        <v>9.098989130308587</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.13026599681229</v>
+        <v>8.227649333575958</v>
       </c>
       <c r="E23">
-        <v>14.28536266309635</v>
+        <v>10.33360141124507</v>
       </c>
       <c r="F23">
-        <v>29.58333947214176</v>
+        <v>22.32562772061253</v>
       </c>
       <c r="G23">
-        <v>28.91858922788005</v>
+        <v>24.52732543278583</v>
       </c>
       <c r="H23">
-        <v>14.18804025529854</v>
+        <v>8.561086957440081</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.05506426392952</v>
+        <v>5.865553267108934</v>
       </c>
       <c r="K23">
-        <v>10.87924235279221</v>
+        <v>17.70992724124792</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.21497111857753</v>
+        <v>15.60047881597529</v>
       </c>
       <c r="N23">
-        <v>18.62420697266625</v>
+        <v>11.88074462653415</v>
       </c>
       <c r="O23">
-        <v>21.64702921947961</v>
+        <v>14.58743904541821</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.069706251641644</v>
+        <v>8.415415817323959</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.07725706852881</v>
+        <v>7.83484602457774</v>
       </c>
       <c r="E24">
-        <v>14.27401232992959</v>
+        <v>9.991303219864216</v>
       </c>
       <c r="F24">
-        <v>29.58467296806312</v>
+        <v>21.57529511394068</v>
       </c>
       <c r="G24">
-        <v>28.87423069407938</v>
+        <v>23.46808796274254</v>
       </c>
       <c r="H24">
-        <v>14.23799782223113</v>
+        <v>8.546635465842286</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.0845956659091</v>
+        <v>5.87005160976319</v>
       </c>
       <c r="K24">
-        <v>10.27830612684158</v>
+        <v>16.5545714767449</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.98884097495642</v>
+        <v>14.50118622833152</v>
       </c>
       <c r="N24">
-        <v>18.70198855823707</v>
+        <v>12.13275571397628</v>
       </c>
       <c r="O24">
-        <v>21.70507735520086</v>
+        <v>14.33068885285604</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.914980527065076</v>
+        <v>7.759912674019549</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.02564262174532</v>
+        <v>7.401225516020392</v>
       </c>
       <c r="E25">
-        <v>14.27082053064935</v>
+        <v>9.632068065864726</v>
       </c>
       <c r="F25">
-        <v>29.61134208029572</v>
+        <v>20.81359604436069</v>
       </c>
       <c r="G25">
-        <v>28.85895621975866</v>
+        <v>22.38236827045353</v>
       </c>
       <c r="H25">
-        <v>14.29993031100161</v>
+        <v>8.554686176511789</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.12076869481245</v>
+        <v>5.885925321620446</v>
       </c>
       <c r="K25">
-        <v>9.667409365451956</v>
+        <v>15.21152707158012</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.74792367020266</v>
+        <v>13.21877677397618</v>
       </c>
       <c r="N25">
-        <v>18.79234949802778</v>
+        <v>12.41635629957719</v>
       </c>
       <c r="O25">
-        <v>21.78433565770271</v>
+        <v>14.10200715930199</v>
       </c>
     </row>
   </sheetData>
